--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +634,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010841</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝红利精选混合C</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,553 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.03</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2093,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.03</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2109,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2125,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2141,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0956</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,150 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>519197</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>万家颐达灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>007449</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>兴全多维价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>28.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.9082</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +771,340 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>010751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>宝盈优质成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.2465</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1537,7 +1727,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1567,36 +1757,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.03</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9082</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1605,340 +1795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010751</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈优质成长混合A</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2465</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1502</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007450</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1452</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011550</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1163</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010752</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011551</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,7 +1859,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2003,36 +1889,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519197</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家颐达灵活配置混合</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0822</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2046,128 +2046,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1</v>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.64</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.03</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河核心优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1832,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2040,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600021-上海电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>5.19</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.64</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>3.03</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安优嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安优嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001633</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012435</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001634</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012436</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,7 +3122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +4240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +4372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +4580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
